--- a/Matryca_LPP.xlsx
+++ b/Matryca_LPP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dariusz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{844103DB-367A-4BBC-A65C-CE69725326FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4DC6E-7A9C-4888-BC35-CB5750C16A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A909BC49-9EF7-4C4E-9793-4321ED7B7F69}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="CELE" sheetId="3" r:id="rId1"/>
     <sheet name="Ile pozostało (do druku)" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CELE!$A$6:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
   <si>
     <t>Grupa</t>
   </si>
@@ -537,7 +540,11 @@
   </si>
   <si>
     <t>Tutaj wprowadź swoje cele oraz uaktualniaj ilość sprzedanych towarów.
-Nie należy zmieniać kolumn "D" oraz "E", zmieniają się one automatycznie.</t>
+Nie należy zmieniać kolumn "D" oraz "E", zmieniają się one automatycznie.
+Dla programu LibreOffice/OpenOffice użyj listy rozwijanej na komórce "zaliczenie"</t>
+  </si>
+  <si>
+    <t>Należy użyć filtru na komórce poniżej</t>
   </si>
 </sst>
 </file>
@@ -577,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -652,11 +659,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -710,6 +728,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,10 +1058,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,48 +1069,51 @@
     <col min="1" max="1" width="85" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16" style="11" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1129,9 @@
       <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1150,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1169,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1188,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1207,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1226,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1245,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
@@ -1238,7 +1264,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>11</v>
       </c>
@@ -1257,7 +1283,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
@@ -1276,7 +1302,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
@@ -3548,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D166" si="8">B135-C135</f>
+        <f t="shared" ref="D135:D158" si="8">B135-C135</f>
         <v>-8</v>
       </c>
       <c r="E135" s="10" t="str">
@@ -3994,10 +4020,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WnJns1aiGeWookG0U6LEBHnyU2m8U0Fu6URMFxVnlirFkmX3AbJp1CahabCP0wIwI5D/NDD0w044os1jxPITPA==" saltValue="mHp2oTvqSkQ2n0pgmSZiKA==" spinCount="100000" sheet="1"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E4"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t+MsuifXZT39uEZVm+nlGSY1jBhA2JuUPCdl7GgaQPZYTsNmyYdP3unt0FCy3bgH1+Z9yKGeXB4FaIUdc+7e0w==" saltValue="22t1c1hBHV0Bn+06U3ul/g==" spinCount="100000" sheet="1" sort="0" autoFilter="0"/>
+  <autoFilter ref="A6:E6" xr:uid="{83EAF0F7-2652-4F49-AF6D-10ACB09228D2}"/>
+  <mergeCells count="3">
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:E158">
     <cfRule type="expression" dxfId="0" priority="3">
